--- a/APPSHEET/EXCEL/habitacion_estado_resumen_melos1.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_resumen_melos1.xlsx
@@ -158,7 +158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUCIO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -176,7 +176,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -185,54 +185,16 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="3" customHeight="1" ht="20">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LIBRE</t>
-          </r>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">25</t>
-          </r>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="575">
-      <c r="A4" s="2" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+    <row r="3" customHeight="1" ht="575">
+      <c r="A3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
